--- a/data/trans_dic/P16B08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,76%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>39,03; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>47,59; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>43,08; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>58,12; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>58,36; 92,46</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,77%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>92,94; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>88,2; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>94,55; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>81,46; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>89,29; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>96,86; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>85,69; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>82,31; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>85,89; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,05%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>58,86; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>74,64; 97,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>83,05; 98,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>80,62; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,14%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,32%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>18,15; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>69,69; 100,0</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>91,36; 100</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,15%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>35,72; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>74,35; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>86,81; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>71,63; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>86,4; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>90,51; 100,0</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,89%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>62,1; 96,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>73,72; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>83,18; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>80,09; 98,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>96,86; 100</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>90,22; 100,0</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,74%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>79,66; 97,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>98,17; 100</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>85,85; 97,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>95,19; 100,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>93,61; 98,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>92,56; 98,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>90,81; 98,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>95,94; 99,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>92,7; 97,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,57; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,2; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>87,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,85; 100</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,64; 97,13</t>
+          <t>63,13; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,05; 98,11</t>
+          <t>74,19; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,03; 100,0</t>
+          <t>45,82; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,7 +696,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,59; 100,0</t>
+          <t>47,67; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,34 +706,34 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,57; 100,0</t>
+          <t>67,86; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,08; 100,0</t>
+          <t>41,83; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>58,12; 100,0</t>
+          <t>58,53; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>78,2; 100,0</t>
+          <t>78,49; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58,36; 92,46</t>
+          <t>57,09; 95,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,2; 100,0</t>
+          <t>82,99; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,12 +821,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>81,46; 100,0</t>
+          <t>80,49; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,29; 100,0</t>
+          <t>88,47; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,14 +836,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,69; 100,0</t>
+          <t>85,25; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -925,7 +926,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>82,31; 100,0</t>
+          <t>76,1; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -940,7 +941,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,89; 100,0</t>
+          <t>85,99; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1025,7 +1026,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,86; 100,0</t>
+          <t>60,61; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1035,7 +1036,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,13; 100,0</t>
+          <t>67,55; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,12 +1051,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,19; 100,0</t>
+          <t>74,22; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,62; 100,0</t>
+          <t>81,72; 100,0</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1136,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,15; 100,0</t>
+          <t>19,34; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1165,14 +1166,14 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,69; 100,0</t>
+          <t>73,0; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1282,7 +1283,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>35,72; 100,0</t>
+          <t>41,14; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1365,27 +1366,27 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>74,35; 100,0</t>
+          <t>77,8; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,81; 100,0</t>
+          <t>86,94; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>71,63; 100,0</t>
+          <t>70,06; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>86,4; 100,0</t>
+          <t>83,06; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,51; 100,0</t>
+          <t>91,84; 100,0</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1456,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>62,1; 96,74</t>
+          <t>63,43; 96,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1465,12 +1466,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73,72; 100,0</t>
+          <t>75,23; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>83,18; 100,0</t>
+          <t>83,26; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1485,7 +1486,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>80,09; 98,1</t>
+          <t>78,74; 98,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1495,7 +1496,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>90,22; 100,0</t>
+          <t>89,47; 100,0</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1566,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>79,66; 97,04</t>
+          <t>78,89; 97,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1575,37 +1576,37 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>85,85; 97,19</t>
+          <t>87,54; 97,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>95,19; 100,0</t>
+          <t>95,29; 100,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>93,61; 98,89</t>
+          <t>93,07; 98,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>92,56; 98,89</t>
+          <t>93,07; 98,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>90,81; 98,16</t>
+          <t>91,69; 98,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>95,94; 99,07</t>
+          <t>95,98; 99,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>92,7; 97,94</t>
+          <t>92,73; 97,81</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la alergia fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5299</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9166</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9340</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4111</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17380</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10292</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9410</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26546</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19632</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2887; 6300</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7449; 9166</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5383; 11292</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2621; 4111</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13127; 19344</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5444; 13016</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6094; 10411</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22378; 28510</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13878; 23286</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9832</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>32351</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13249</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30702</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>37869</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34172</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>40534</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>70220</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>47420</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7990; 9832</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30069; 32351</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11462; 13249</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26212; 31583</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35804; 37869</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29191; 36267</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>36639; 41415</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>68017; 70220</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>42213; 49515</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1597</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6822</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9038</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8733</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23298</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10246</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10330</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30119</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19283</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>365; 1597</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5236; 6822</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7345; 9038</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7097; 8733</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18541; 24363</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8639; 10246</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8566; 10330</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26816; 31184</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17538; 19283</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9303</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7352</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14072</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13096</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13906</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>24488</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22399</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>21258</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>38560</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7373; 9303</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5643; 7352</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9490; 15657</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11329; 13096</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10714; 15860</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>22372; 24488</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20464; 22399</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17228; 23212</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>32808; 40145</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6753</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8981</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17628</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21086</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10139</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24381</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>30067</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>13622</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5183; 6753</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7298; 8981</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>862; 4457</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15542; 17628</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19264; 21086</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8548; 10139</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22365; 24381</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>28217; 30067</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>10655; 14596</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10130</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8693</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9567</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14225</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13669</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14265</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>24356</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22362</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2995; 4698</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8232; 10130</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7064; 8693</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7774; 9567</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12306; 14225</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11686; 13669</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>12341; 14265</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>22342; 24356</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20430; 22362</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>7691</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>10288</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>14761</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>18402</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>26028</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>38693</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>26093</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>36315</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>53454</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3889; 9453</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8531; 10288</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12620; 14761</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>16564; 18402</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>21172; 27212</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>34514; 39699</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19514; 27855</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31148; 37499</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>50014; 54460</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>24355</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>29653</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>22975</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>28199</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>34167</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>42041</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>52554</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>63821</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>65016</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>17942; 27369</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>27635; 29653</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>18856; 25065</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>24275; 29157</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>32249; 34167</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>40033; 42041</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>45234; 56353</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>61819; 63821</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>60037; 67106</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>69528</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>114743</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>95612</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>130438</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>187959</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>183737</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>199965</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>302703</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>279349</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>60132; 74004</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>112648; 114743</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>89476; 99628</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>126046; 132277</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>180665; 191997</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>176422; 187517</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>191171; 204862</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>296439; 306820</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>270575; 285383</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>